--- a/main/carla_runs/compas/compas_stats_carla.xlsx
+++ b/main/carla_runs/compas/compas_stats_carla.xlsx
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.191919191919192</v>
+        <v>5.161616161616162</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1975939861390579</v>
+        <v>2.199146899475082</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1830084839982938</v>
+        <v>2.163708741019674</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1684071368384692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5283159165585836</v>
+        <v>0.3699716124540519</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4824108937668725</v>
+        <v>0.4004557400923186</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4625056151748708</v>
+        <v>0.3737509168577619</v>
       </c>
       <c r="E4" t="n">
-        <v>0.367137357254496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.003223017231418</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.000004837570589</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7.430776768399582e-05</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.521644338178693e-09</v>
-      </c>
-      <c r="E5" t="n">
-        <v>7.430776768399582e-05</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.015855129061242</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.000111827743817</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.002552356109739637</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.515492470549998e-06</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.002552356109739637</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.022797494580614</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.000247305107726</v>
+      </c>
+      <c r="E7" t="n">
         <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.007045140927057766</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.963401068210436e-05</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.007045140927057766</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.04142350414401</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.000910619094734</v>
+      </c>
+      <c r="E8" t="n">
         <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01554151857619695</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0002421121366026432</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.01554151857619695</v>
       </c>
     </row>
     <row r="9">
@@ -595,13 +595,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>3.189492940897474</v>
+        <v>3.306349560875093</v>
       </c>
       <c r="D9" t="n">
-        <v>3.018833961468267</v>
+        <v>3.041236137226413</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
